--- a/medicine/Pharmacie/Digestion_(méthode_d'extraction)/Digestion_(méthode_d'extraction).xlsx
+++ b/medicine/Pharmacie/Digestion_(méthode_d'extraction)/Digestion_(méthode_d'extraction).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digestion_(m%C3%A9thode_d%27extraction)</t>
+          <t>Digestion_(méthode_d'extraction)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La digestion est une macération à chaud[1]. L'échantillon qui doit subir une extraction est mis durant une durée plus ou moins longue dans un liquide chauffé à une température inférieure à celle de sa température d'ébullition.
-La digestion est utilisée surtout en industrie pharmaceutique et en parfumerie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La digestion est une macération à chaud. L'échantillon qui doit subir une extraction est mis durant une durée plus ou moins longue dans un liquide chauffé à une température inférieure à celle de sa température d'ébullition.
+La digestion est utilisée surtout en industrie pharmaceutique et en parfumerie.
 </t>
         </is>
       </c>
